--- a/Reports/Lobewise Comparisons/ResultsFinal/bronch.xlsx
+++ b/Reports/Lobewise Comparisons/ResultsFinal/bronch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c2d16a148962151/Desktop/BIOSTAT/Thesis/Thesis/Reports/Lobewise Comparisons/ResultsFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="332" documentId="11_F25DC773A252ABDACC1048CA799F592E5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{436AD0B3-981A-45A0-8049-405E01293421}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="11_F25DC773A252ABDACC1048CA799F592E5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73D5F5F7-9785-443F-BE0A-9063C3DD2259}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PO_main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="26">
   <si>
     <t>Comparison</t>
   </si>
@@ -87,54 +87,6 @@
     <t>RUL vs RLL</t>
   </si>
   <si>
-    <t>LLS 0|1 vs LUS 0|1</t>
-  </si>
-  <si>
-    <t>LLL 0|1 vs LUS 0|1</t>
-  </si>
-  <si>
-    <t>LLS 0|1 vs RLL 0|1</t>
-  </si>
-  <si>
-    <t>LLS 0|1 vs RUL 0|1</t>
-  </si>
-  <si>
-    <t>RML 0|1 vs RUL 0|1</t>
-  </si>
-  <si>
-    <t>LLS 0|1 vs RML 0|1</t>
-  </si>
-  <si>
-    <t>LLS 1|2 vs LUS 1|2</t>
-  </si>
-  <si>
-    <t>RML 1|2 vs RUL 1|2</t>
-  </si>
-  <si>
-    <t>LLL 1|2 vs LUS 1|2</t>
-  </si>
-  <si>
-    <t>LLS 1|2 vs RLL 1|2</t>
-  </si>
-  <si>
-    <t>LLS 1|2 vs RUL 1|2</t>
-  </si>
-  <si>
-    <t>RML 2|3 vs RUL 2|3</t>
-  </si>
-  <si>
-    <t>LLS 2|3 vs LUS 2|3</t>
-  </si>
-  <si>
-    <t>LLL 2|3 vs LUS 2|3</t>
-  </si>
-  <si>
-    <t>LLS 2|3 vs RLL 2|3</t>
-  </si>
-  <si>
-    <t>LLS 2|3 vs RUL 2|3</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
@@ -156,91 +108,16 @@
     <t>LLS vs RUL</t>
   </si>
   <si>
-    <t xml:space="preserve">RML 0|1 vs LUS 0|1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUL 0|1 vs LUS 0|1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RLL 0|1 vs LUS 0|1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLS 0|1 vs LLL 0|1 </t>
-  </si>
-  <si>
-    <t>RML 0|1 vs LLL 0|1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUL 0|1 vs LLL 0|1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RML 0|1 vs RLL 0|1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RLL 0|1 vs LLL 0|1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUL 0|1 vs RLL 0|1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RML 1|2 vs LUS 1|2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RML 1|2 LLL 1|2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUL 1|2 vs LUS 1|2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RLL 1|2 vs LUS 1|2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RML 1|2 vs RLL 1|2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RML 1|2 vs LLS 1|2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLS 1|2 vs LLL 1|2 </t>
-  </si>
-  <si>
-    <t>RUL 1|2 vs LLL 1|2</t>
-  </si>
-  <si>
-    <t>RLL 1|2 vs LLL 1|2</t>
-  </si>
-  <si>
-    <t>RUL 1|2 vs RLL 1|2</t>
-  </si>
-  <si>
-    <t>RML 2|3 vs LUS 2|3</t>
-  </si>
-  <si>
-    <t>RML 2|3 vs LLL 2|3</t>
-  </si>
-  <si>
-    <t>RML 2|3 vs RLL 2|3</t>
-  </si>
-  <si>
-    <t>RUL 2|3 vs LUS 2|3</t>
-  </si>
-  <si>
-    <t>RML 2|3 vs LLS 2|3</t>
-  </si>
-  <si>
-    <t>RLL 2|3 vs LUS 2|3</t>
-  </si>
-  <si>
-    <t>LLS 2|3 vs LLL 2|3</t>
-  </si>
-  <si>
-    <t>RUL 2|3 vs LLL 2|3</t>
-  </si>
-  <si>
-    <t>RUL 2|3 vs RLL 2|3</t>
-  </si>
-  <si>
-    <t>RLL 2|3 vs LLL 2|3</t>
+    <t xml:space="preserve">RML vs LUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUL vs LLL </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RML vs RLL</t>
+  </si>
+  <si>
+    <t>LLS vs RML</t>
   </si>
 </sst>
 </file>
@@ -276,9 +153,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +442,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -594,10 +470,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -625,7 +501,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <f>1/0.1059</f>
@@ -743,7 +619,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <f>1/0.307</f>
@@ -769,7 +645,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <f>1/0.2965</f>
@@ -864,7 +740,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <f>1/0.5696</f>
@@ -913,7 +789,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <f>1/0.734</f>
@@ -969,11 +845,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31352B40-21B4-431D-AC21-5F70B9A713D1}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.20703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -992,10 +871,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1023,7 +902,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <f>1/0.1271</f>
@@ -1141,7 +1020,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <f>1/0.3343</f>
@@ -1167,7 +1046,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <f>1/0.3313</f>
@@ -1262,7 +1141,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <f>1/0.594</f>
@@ -1311,7 +1190,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <f>1/0.7542</f>
@@ -1368,7 +1247,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1393,15 +1272,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>9.1938960801984724</v>
@@ -1424,7 +1303,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <f>1/0.117410022321703</f>
@@ -1450,7 +1329,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <f>1/0.182606073649894</f>
@@ -1476,7 +1355,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <f>1/0.257152890050881</f>
@@ -1502,7 +1381,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <f>1/0.231573550837699</f>
@@ -1528,7 +1407,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <f>1/0.249973353295409</f>
@@ -1554,7 +1433,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <f>1/0.388779864442072</f>
@@ -1580,7 +1459,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>2.1290631613243591</v>
@@ -1603,7 +1482,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>2.3642369478505061</v>
@@ -1626,7 +1505,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <f>1/0.456576717059148</f>
@@ -1652,7 +1531,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <f>1/0.547494745035425</f>
@@ -1678,7 +1557,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>1.6788612647501939</v>
@@ -1701,7 +1580,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>1.555285230672673</v>
@@ -1724,7 +1603,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <f>1/0.710107024711108</f>
@@ -1750,7 +1629,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>1.0794555439995239</v>
@@ -1781,7 +1660,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1806,15 +1685,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
         <f>1/0.0375724483271829</f>
@@ -1839,8 +1718,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
+      <c r="A3" t="s">
+        <v>17</v>
       </c>
       <c r="B3">
         <v>8.8936670204629653</v>
@@ -1862,8 +1741,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
         <f>1/0.17362931609263</f>
@@ -1888,8 +1767,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
       <c r="B5">
         <f>1/0.136826433946953</f>
@@ -1914,8 +1793,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
         <f>1/0.158876157049763</f>
@@ -1940,8 +1819,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
         <f>1/0.236488904470508</f>
@@ -1966,8 +1845,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8">
         <v>3.6416693624929901</v>
@@ -1989,8 +1868,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
+      <c r="A9" t="s">
+        <v>19</v>
       </c>
       <c r="B9">
         <v>4.6211871683382828</v>
@@ -2012,8 +1891,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
+      <c r="A10" t="s">
+        <v>11</v>
       </c>
       <c r="B10">
         <f>1/0.334156844565515</f>
@@ -2038,8 +1917,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>53</v>
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
         <f>1/0.519604248473171</f>
@@ -2064,8 +1943,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>54</v>
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <f>1/0.632300560845144</f>
@@ -2090,8 +1969,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
+      <c r="A13" t="s">
+        <v>20</v>
       </c>
       <c r="B13">
         <v>1.4129916382913701</v>
@@ -2113,8 +1992,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
-        <v>55</v>
+      <c r="A14" t="s">
+        <v>13</v>
       </c>
       <c r="B14">
         <f>1/0.734196458313262</f>
@@ -2139,8 +2018,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>25</v>
+      <c r="A15" t="s">
+        <v>21</v>
       </c>
       <c r="B15">
         <v>1.216888743121568</v>
@@ -2162,8 +2041,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>56</v>
+      <c r="A16" t="s">
+        <v>14</v>
       </c>
       <c r="B16">
         <f>1/0.861214397979782</f>
@@ -2196,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F424DB1-8425-4E08-AF9B-1B47E390517C}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2222,15 +2101,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
         <f>1/0.0205182681554821</f>
@@ -2255,8 +2134,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>58</v>
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
         <f>1/0.143683175124506</f>
@@ -2281,8 +2160,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
         <f>1/0.187544055383634</f>
@@ -2307,8 +2186,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
+      <c r="A5" t="s">
+        <v>18</v>
       </c>
       <c r="B5">
         <v>4.1218284822905966</v>
@@ -2330,8 +2209,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
+      <c r="A6" t="s">
+        <v>17</v>
       </c>
       <c r="B6">
         <v>13.376150689858781</v>
@@ -2353,8 +2232,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>60</v>
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <f>1/0.0845727820905424</f>
@@ -2379,8 +2258,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>61</v>
+      <c r="A8" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
         <f>1/0.27445544674266</f>
@@ -2405,8 +2284,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
         <f>1/0.109405057459756</f>
@@ -2431,8 +2310,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
+      <c r="A10" t="s">
+        <v>19</v>
       </c>
       <c r="B10">
         <v>7.0026950635264074</v>
@@ -2454,8 +2333,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
         <f>1/0.523520946039846</f>
@@ -2480,8 +2359,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>64</v>
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <f>1/0.592237403654136</f>
@@ -2506,8 +2385,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
+      <c r="A13" t="s">
+        <v>20</v>
       </c>
       <c r="B13">
         <v>1.4634185348143509</v>
@@ -2529,8 +2408,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
-        <v>65</v>
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <f>1/0.77302442916455</f>
@@ -2555,8 +2434,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>66</v>
+      <c r="A15" t="s">
+        <v>13</v>
       </c>
       <c r="B15">
         <f>1/0.766130255798254</f>
@@ -2581,8 +2460,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
+      <c r="A16" t="s">
+        <v>21</v>
       </c>
       <c r="B16">
         <v>1.131258277503685</v>
